--- a/dados/cap3.xlsx
+++ b/dados/cap3.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\glossario_stf\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD60BD-EC21-4EB7-B020-FFCF6D5E0B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A295D9BA-C301-44ED-9621-8E86E0762A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1B3479A7-5E3F-4DCF-999A-B0BE5180553E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{1B3479A7-5E3F-4DCF-999A-B0BE5180553E}"/>
   </bookViews>
   <sheets>
     <sheet name="classes_3-1" sheetId="1" r:id="rId1"/>
     <sheet name="classes_3-2" sheetId="2" r:id="rId2"/>
     <sheet name="classes_3-3" sheetId="3" r:id="rId3"/>
     <sheet name="classes_3-4" sheetId="4" r:id="rId4"/>
+    <sheet name="classes_3-5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="472">
   <si>
     <t>Classe</t>
   </si>
@@ -358,6 +359,1101 @@
   </si>
   <si>
     <t>Tutela Provisória Incidental</t>
+  </si>
+  <si>
+    <t>Grupo Andamento Comissão</t>
+  </si>
+  <si>
+    <t>Subgrupo Andamento Comissão</t>
+  </si>
+  <si>
+    <t>Andamento</t>
+  </si>
+  <si>
+    <t>Cod. Andamento</t>
+  </si>
+  <si>
+    <t>Agendamento</t>
+  </si>
+  <si>
+    <t>Afetado ao Plenário</t>
+  </si>
+  <si>
+    <t>Apresentado em mesa para julgamento</t>
+  </si>
+  <si>
+    <t>Inclua-se em pauta - minuta extraída</t>
+  </si>
+  <si>
+    <t>Devolução de Processo com Vista</t>
+  </si>
+  <si>
+    <t>Vista - Devolução dos autos para julgamento</t>
+  </si>
+  <si>
+    <t>Análise Repercussão Geral</t>
+  </si>
+  <si>
+    <t>Cancelado tema de repercussão geral</t>
+  </si>
+  <si>
+    <t>Fixada a Tese</t>
+  </si>
+  <si>
+    <t>Iniciada análise de repercussão geral</t>
+  </si>
+  <si>
+    <t>Mérito da repercussão geral julgado no processo nº</t>
+  </si>
+  <si>
+    <t>Substituído para julgamento de tema de repercussão geral pelo processo nº</t>
+  </si>
+  <si>
+    <t>Substitui o paradigma de repercussão geral - processo nº</t>
+  </si>
+  <si>
+    <t>Ato Cartorário</t>
+  </si>
+  <si>
+    <t>Autos requisitados</t>
+  </si>
+  <si>
+    <t>Autos requisitados ao AGU</t>
+  </si>
+  <si>
+    <t>Autos requisitados à PGR</t>
+  </si>
+  <si>
+    <t>Cancelada a Suspensão Nacional</t>
+  </si>
+  <si>
+    <t>Declarada a Inconstitucionalidade Incidental de Ato Normativo</t>
+  </si>
+  <si>
+    <t>Decurso de prazo para apresentar contrarrazões</t>
+  </si>
+  <si>
+    <t>Decurso de prazo para apresentar resposta</t>
+  </si>
+  <si>
+    <t>Determinada a Suspensão Nacional</t>
+  </si>
+  <si>
+    <t>Vista a parte agravada para apresentar contrarrazões</t>
+  </si>
+  <si>
+    <t>Vista à parte embargada para apresentar resposta</t>
+  </si>
+  <si>
+    <t>Autuação</t>
+  </si>
+  <si>
+    <t>Autuado</t>
+  </si>
+  <si>
+    <t>Baixa Não Definitiva</t>
+  </si>
+  <si>
+    <t>Baixa em Diligência</t>
+  </si>
+  <si>
+    <t>Baixa dos autos em diligência, Guia nº</t>
+  </si>
+  <si>
+    <t>Assinatura</t>
+  </si>
+  <si>
+    <t>Comunicação assinada</t>
+  </si>
+  <si>
+    <t>Citação</t>
+  </si>
+  <si>
+    <t>Citação eletrônica disponibilizada</t>
+  </si>
+  <si>
+    <t>Citado eletronicamente</t>
+  </si>
+  <si>
+    <t>Edital</t>
+  </si>
+  <si>
+    <t>Edital encaminhado para publicação</t>
+  </si>
+  <si>
+    <t>Intimação</t>
+  </si>
+  <si>
+    <t>Chamada para impugnação</t>
+  </si>
+  <si>
+    <t>Chamada para preparo</t>
+  </si>
+  <si>
+    <t>Citado</t>
+  </si>
+  <si>
+    <t>Cobrada a devolução dos autos</t>
+  </si>
+  <si>
+    <t>Comunicada decisão, Ofício nº</t>
+  </si>
+  <si>
+    <t>Expedida carta de ordem, Ofício nº</t>
+  </si>
+  <si>
+    <t>Expedida intimação via postal</t>
+  </si>
+  <si>
+    <t>Expedido(a)</t>
+  </si>
+  <si>
+    <t>Expedido Ofício nº</t>
+  </si>
+  <si>
+    <t>Expedido telex/fax nº</t>
+  </si>
+  <si>
+    <t>Intimação eletrônica disponibilizada</t>
+  </si>
+  <si>
+    <t>Intimado</t>
+  </si>
+  <si>
+    <t>Intimado eletronicamente</t>
+  </si>
+  <si>
+    <t>Pedido de informações</t>
+  </si>
+  <si>
+    <t>Reiterado pedido de informações</t>
+  </si>
+  <si>
+    <t>Notificação</t>
+  </si>
+  <si>
+    <t>Conclusão</t>
+  </si>
+  <si>
+    <t>Conclusão (art. 38 do RISTF)</t>
+  </si>
+  <si>
+    <t>Conclusos ao(à) Relator(a)</t>
+  </si>
+  <si>
+    <t>Conclusos ao(à) Relator(a) para o acórdão</t>
+  </si>
+  <si>
+    <t>Conclusos ao(à) Revisor(a)</t>
+  </si>
+  <si>
+    <t>Conclusos à Presidência</t>
+  </si>
+  <si>
+    <t>Conclusos à Vice-Presidência</t>
+  </si>
+  <si>
+    <t>Decisão</t>
+  </si>
+  <si>
+    <t>Reconsidero e determino a distribuição</t>
+  </si>
+  <si>
+    <t>Decisão em recurso interno</t>
+  </si>
+  <si>
+    <t>Admitidos embargos de divergência</t>
+  </si>
+  <si>
+    <t>Agravo regimental não conhecido</t>
+  </si>
+  <si>
+    <t>Agravo regimental não provido</t>
+  </si>
+  <si>
+    <t>Agravo regimental provido</t>
+  </si>
+  <si>
+    <t>Agravo regimental provido em parte</t>
+  </si>
+  <si>
+    <t>Embargos não conhecidos</t>
+  </si>
+  <si>
+    <t>Embargos recebidos</t>
+  </si>
+  <si>
+    <t>Embargos recebidos como agravo regimental desde logo não conhecido</t>
+  </si>
+  <si>
+    <t>Embargos recebidos como agravo regimental desde logo não provido</t>
+  </si>
+  <si>
+    <t>Embargos recebidos como agravo regimental desde logo provido</t>
+  </si>
+  <si>
+    <t>Embargos recebidos em parte</t>
+  </si>
+  <si>
+    <t>Embargos rejeitados</t>
+  </si>
+  <si>
+    <t>Inadmitidos os embargos de divergência</t>
+  </si>
+  <si>
+    <t>Reconsideração</t>
+  </si>
+  <si>
+    <t>Reconsidero e julgo prejudicado o recurso interno</t>
+  </si>
+  <si>
+    <t>Decisão Final</t>
+  </si>
+  <si>
+    <t>Acolhida proposta de cancelamento de SV</t>
+  </si>
+  <si>
+    <t>Acolhida proposta de edição de SV</t>
+  </si>
+  <si>
+    <t>Acolhida proposta de revisão de SV</t>
+  </si>
+  <si>
+    <t>Agravo de instrumento provido</t>
+  </si>
+  <si>
+    <t>Agravo não provido</t>
+  </si>
+  <si>
+    <t>Agravo provido e desde logo negado seguimento ao RE</t>
+  </si>
+  <si>
+    <t>Agravo provido e desde logo provido o RE</t>
+  </si>
+  <si>
+    <t>Agravo provido e desde logo provido parcialmente o RE</t>
+  </si>
+  <si>
+    <t>Agravo provido e determinada a devolução pelo regime da repercussão geral</t>
+  </si>
+  <si>
+    <t>Agravo provido e RE pendente de julgamento</t>
+  </si>
+  <si>
+    <t>AI provido e determinada a conversão em RE</t>
+  </si>
+  <si>
+    <t>AI provido e determinada a subida do RE</t>
+  </si>
+  <si>
+    <t>Concedida a ordem</t>
+  </si>
+  <si>
+    <t>Concedida a ordem de ofício</t>
+  </si>
+  <si>
+    <t>Concedida a segurança</t>
+  </si>
+  <si>
+    <t>Concedida a suspensão</t>
+  </si>
+  <si>
+    <t>Concedida em parte a ordem</t>
+  </si>
+  <si>
+    <t>Concedida em parte a segurança</t>
+  </si>
+  <si>
+    <t>Concedida em parte a suspensão</t>
+  </si>
+  <si>
+    <t>Conhecida e julgada sem pronúncia de inconstitucionalidade</t>
+  </si>
+  <si>
+    <t>Decisão Ratificada</t>
+  </si>
+  <si>
+    <t>Decisão Referendada</t>
+  </si>
+  <si>
+    <t>Decisão (segredo de justiça)</t>
+  </si>
+  <si>
+    <t>Declarada a extinção da punibilidade</t>
+  </si>
+  <si>
+    <t>Declarada a restauração dos autos</t>
+  </si>
+  <si>
+    <t>Declinada a competência</t>
+  </si>
+  <si>
+    <t>Decretada a deserção</t>
+  </si>
+  <si>
+    <t>Denegada a ordem</t>
+  </si>
+  <si>
+    <t>Denegada a segurança</t>
+  </si>
+  <si>
+    <t>Denegada a suspensão</t>
+  </si>
+  <si>
+    <t>Determinada a devolução em razão de representativo da controvérsia</t>
+  </si>
+  <si>
+    <t>Determinada a devolução pelo regime da repercussão geral</t>
+  </si>
+  <si>
+    <t>Determinado arquivamento</t>
+  </si>
+  <si>
+    <t>Extinto o processo</t>
+  </si>
+  <si>
+    <t>Homologação de transação penal</t>
+  </si>
+  <si>
+    <t>Homologada a desistência</t>
+  </si>
+  <si>
+    <t>Homologado o acordo</t>
+  </si>
+  <si>
+    <t>Improcedente</t>
+  </si>
+  <si>
+    <t>Não conhecido(s)</t>
+  </si>
+  <si>
+    <t>Não provido</t>
+  </si>
+  <si>
+    <t>Negado seguimento</t>
+  </si>
+  <si>
+    <t>Negado seguimento por ausência de preliminar, art. 327 do RISTF</t>
+  </si>
+  <si>
+    <t>Prejudicado</t>
+  </si>
+  <si>
+    <t>Procedente</t>
+  </si>
+  <si>
+    <t>Procedente em parte</t>
+  </si>
+  <si>
+    <t>Provido</t>
+  </si>
+  <si>
+    <t>Provido em parte</t>
+  </si>
+  <si>
+    <t>Questão de ordem</t>
+  </si>
+  <si>
+    <t>Recebida a queixa</t>
+  </si>
+  <si>
+    <t>Recebida a queixa em parte</t>
+  </si>
+  <si>
+    <t>Recebida denúncia</t>
+  </si>
+  <si>
+    <t>Recebida denúncia em parte</t>
+  </si>
+  <si>
+    <t>Reconsidero e devolvo pelo regime da repercussão geral</t>
+  </si>
+  <si>
+    <t>Rejeitada a denúncia</t>
+  </si>
+  <si>
+    <t>Rejeitada a queixa</t>
+  </si>
+  <si>
+    <t>Rejeitada proposta de cancelamento de SV</t>
+  </si>
+  <si>
+    <t>Rejeitada proposta de edição de SV</t>
+  </si>
+  <si>
+    <t>Rejeitada proposta de revisão de SV</t>
+  </si>
+  <si>
+    <t>Decisão Interlocutória</t>
+  </si>
+  <si>
+    <t>À Secretaria, para o regular trâmite</t>
+  </si>
+  <si>
+    <t>Convertido em diligência</t>
+  </si>
+  <si>
+    <t>Decretada a prisão</t>
+  </si>
+  <si>
+    <t>Deferido</t>
+  </si>
+  <si>
+    <t>Deferido em parte</t>
+  </si>
+  <si>
+    <t>Determinada a devolução</t>
+  </si>
+  <si>
+    <t>Indeferido</t>
+  </si>
+  <si>
+    <t>Revogada a prisão</t>
+  </si>
+  <si>
+    <t>Decisão Liminar</t>
+  </si>
+  <si>
+    <t>Adotado rito do Art. 12, da Lei 9.868/99</t>
+  </si>
+  <si>
+    <t>Decisão liminar (segredo de justiça)</t>
+  </si>
+  <si>
+    <t>Liminar deferida</t>
+  </si>
+  <si>
+    <t>Liminar deferida ad referendum</t>
+  </si>
+  <si>
+    <t>Liminar deferida em parte</t>
+  </si>
+  <si>
+    <t>Liminar indeferida</t>
+  </si>
+  <si>
+    <t>Liminar indeferida ad referendum</t>
+  </si>
+  <si>
+    <t>Liminar não referendada</t>
+  </si>
+  <si>
+    <t>Liminar parcialmente deferida ad referendum</t>
+  </si>
+  <si>
+    <t>Liminar prejudicada</t>
+  </si>
+  <si>
+    <t>Liminar referendada</t>
+  </si>
+  <si>
+    <t>Liminar referendada em parte</t>
+  </si>
+  <si>
+    <t>Decisão Rep. Geral</t>
+  </si>
+  <si>
+    <t>Agravo provido e julgado mérito de tema com repercussão geral</t>
+  </si>
+  <si>
+    <t>Decisão pela existência de repercussão geral</t>
+  </si>
+  <si>
+    <t>Decisão pela inexistência de repercussão geral</t>
+  </si>
+  <si>
+    <t>Decisão pela inexistência de repercussão geral por se tratar de matéria infraconstitucional</t>
+  </si>
+  <si>
+    <t>Julgado mérito de tema com repercussão geral</t>
+  </si>
+  <si>
+    <t>Reafirmação de Jurisprudência no Plenário Presencial</t>
+  </si>
+  <si>
+    <t>Reconhecida a repercussão geral e julgado o mérito com reafirmação de jurisprudência no PV</t>
+  </si>
+  <si>
+    <t>Decisão Sobrestamento</t>
+  </si>
+  <si>
+    <t>Sobrestado</t>
+  </si>
+  <si>
+    <t>Sobrestado, aguardando decisão do STJ</t>
+  </si>
+  <si>
+    <t>Despacho</t>
+  </si>
+  <si>
+    <t>Apensado ao Processo nº</t>
+  </si>
+  <si>
+    <t>Declarado o impedimento/suspeição</t>
+  </si>
+  <si>
+    <t>Desapensado do Processo nº</t>
+  </si>
+  <si>
+    <t>Despacho em petição avulsa</t>
+  </si>
+  <si>
+    <t>Determinada a citação</t>
+  </si>
+  <si>
+    <t>Determinada a citação por carta de ordem</t>
+  </si>
+  <si>
+    <t>Determinada a citação por carta de rogatória</t>
+  </si>
+  <si>
+    <t>Determinada a citação por edital</t>
+  </si>
+  <si>
+    <t>Determinada a correção da autuação</t>
+  </si>
+  <si>
+    <t>Determinada a diligência</t>
+  </si>
+  <si>
+    <t>Determinada a intimação</t>
+  </si>
+  <si>
+    <t>Determinada a notificação</t>
+  </si>
+  <si>
+    <t>Determinada a redistribuição</t>
+  </si>
+  <si>
+    <t>Determinada a requisição dos autos originais</t>
+  </si>
+  <si>
+    <t>Determinado o interrogatório</t>
+  </si>
+  <si>
+    <t>Determino a baixa dos autos - remessa indevida</t>
+  </si>
+  <si>
+    <t>Determino a distribuição</t>
+  </si>
+  <si>
+    <t>Distribuição</t>
+  </si>
+  <si>
+    <t>Exclusão Ministro</t>
+  </si>
+  <si>
+    <t>Distribuído por exclusão de Ministro</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Distribuído</t>
+  </si>
+  <si>
+    <t>Prevenção Relator</t>
+  </si>
+  <si>
+    <t>Distribuído por prevenção</t>
+  </si>
+  <si>
+    <t>Prevenção Turma</t>
+  </si>
+  <si>
+    <t>Distribuído por prevenção de Turma</t>
+  </si>
+  <si>
+    <t>Redistribuído</t>
+  </si>
+  <si>
+    <t>Registro à Presidência</t>
+  </si>
+  <si>
+    <t>Registrado à Presidência</t>
+  </si>
+  <si>
+    <t>Substituição</t>
+  </si>
+  <si>
+    <t>Substituição do Relator, art. 38 do RISTF</t>
+  </si>
+  <si>
+    <t>Substituição do Relator, art. 38, II, do RISTF</t>
+  </si>
+  <si>
+    <t>Empréstimo dos Autos</t>
+  </si>
+  <si>
+    <t>Autos emprestados</t>
+  </si>
+  <si>
+    <t>Finalizados</t>
+  </si>
+  <si>
+    <t>Baixa Definitiva</t>
+  </si>
+  <si>
+    <t>Baixa ao arquivo do STF, Guia nº</t>
+  </si>
+  <si>
+    <t>Baixa definitiva dos autos, Guia nº</t>
+  </si>
+  <si>
+    <t>Comunicado provimento de agravo, Ofício nº</t>
+  </si>
+  <si>
+    <t>Devolução</t>
+  </si>
+  <si>
+    <t>Autos devolvidos à origem</t>
+  </si>
+  <si>
+    <t>Devolução por impossibilidade de processamento</t>
+  </si>
+  <si>
+    <t>Remessa dos autos ao juízo competente, Guia nº</t>
+  </si>
+  <si>
+    <t>Remessa indevida</t>
+  </si>
+  <si>
+    <t>Finalização da Autuação</t>
+  </si>
+  <si>
+    <t>Baixa dos autos - distribuição cancelada</t>
+  </si>
+  <si>
+    <t>Cancelamento de autuação</t>
+  </si>
+  <si>
+    <t>Reautuado</t>
+  </si>
+  <si>
+    <t>Finalização por Restauração</t>
+  </si>
+  <si>
+    <t>Autos restaurados</t>
+  </si>
+  <si>
+    <t>Registro de Finalizado</t>
+  </si>
+  <si>
+    <t>Agravo de Instrumento apensado ao RE nº</t>
+  </si>
+  <si>
+    <t>Autos entregues ao advogado</t>
+  </si>
+  <si>
+    <t>Processo findo</t>
+  </si>
+  <si>
+    <t>Retificação de autuação</t>
+  </si>
+  <si>
+    <t>Remessa Externa</t>
+  </si>
+  <si>
+    <t>Processo recebido na origem</t>
+  </si>
+  <si>
+    <t>Remessa externa dos autos, Guia nº</t>
+  </si>
+  <si>
+    <t>Incidente</t>
+  </si>
+  <si>
+    <t>Admissão de assistente</t>
+  </si>
+  <si>
+    <t>Iniciada a execução penal</t>
+  </si>
+  <si>
+    <t>Iniciado o cumprimento de sentença</t>
+  </si>
+  <si>
+    <t>Pedido de Prisão Domiciliar</t>
+  </si>
+  <si>
+    <t>Pedido de Progressão de Regime</t>
+  </si>
+  <si>
+    <t>Pedido de Trabalho Externo</t>
+  </si>
+  <si>
+    <t>Pedido de Transferência</t>
+  </si>
+  <si>
+    <t>Julgamento Virtual</t>
+  </si>
+  <si>
+    <t>Finalizado Julgamento Virtual</t>
+  </si>
+  <si>
+    <t>Iniciado Julgamento Virtual</t>
+  </si>
+  <si>
+    <t>Retirado do Julgamento Virtual</t>
+  </si>
+  <si>
+    <t>Juntada</t>
+  </si>
+  <si>
+    <t>Devolução de mandado</t>
+  </si>
+  <si>
+    <t>Juntada de AR</t>
+  </si>
+  <si>
+    <t>Juntada do mandado cumprido</t>
+  </si>
+  <si>
+    <t>Juntada do mandado de intimação devidamente cumprido - AGU</t>
+  </si>
+  <si>
+    <t>Juntada do mandado de intimação devidamente cumprido - DPU</t>
+  </si>
+  <si>
+    <t>Juntada do mandado de intimação devidamente cumprido - INSS</t>
+  </si>
+  <si>
+    <t>Juntada do mandado de intimação devidamente cumprido - MPF</t>
+  </si>
+  <si>
+    <t>Juntada do mandado de intimação devidamente cumprido - PGF</t>
+  </si>
+  <si>
+    <t>Juntada do mandado de intimação devidamente cumprido - PGR</t>
+  </si>
+  <si>
+    <t>Juntada do mandado sem cumprimento</t>
+  </si>
+  <si>
+    <t>Juntada por linha</t>
+  </si>
+  <si>
+    <t>Lançamento Indevido</t>
+  </si>
+  <si>
+    <t>Lançamento indevido</t>
+  </si>
+  <si>
+    <t>Retificação de recurso/incidente</t>
+  </si>
+  <si>
+    <t>Não se aplica</t>
+  </si>
+  <si>
+    <t>Arquivo de sustentação oral rejeitado</t>
+  </si>
+  <si>
+    <t>Audiência realizada</t>
+  </si>
+  <si>
+    <t>Designada data de audiência</t>
+  </si>
+  <si>
+    <t>Sustentação Oral</t>
+  </si>
+  <si>
+    <t>NÃO SE APLICA</t>
+  </si>
+  <si>
+    <t>Adiado o julgamento</t>
+  </si>
+  <si>
+    <t>Anexado o Protocolo nº</t>
+  </si>
+  <si>
+    <t>Arquivada a petição</t>
+  </si>
+  <si>
+    <t>Ato ordinatório</t>
+  </si>
+  <si>
+    <t>Autos disponibilizados à autoridade policial</t>
+  </si>
+  <si>
+    <t>Autos em restauração</t>
+  </si>
+  <si>
+    <t>Cancelamento da distribuição</t>
+  </si>
+  <si>
+    <t>Carta de ordem devolvida</t>
+  </si>
+  <si>
+    <t>Certidão</t>
+  </si>
+  <si>
+    <t>Ciência</t>
+  </si>
+  <si>
+    <t>Conclusos à Comissão de Jurisprudência</t>
+  </si>
+  <si>
+    <t>Conexão com o Processo nº</t>
+  </si>
+  <si>
+    <t>Convertido em eletrônico</t>
+  </si>
+  <si>
+    <t>Decorrido o prazo</t>
+  </si>
+  <si>
+    <t>Desentranhamento de peças</t>
+  </si>
+  <si>
+    <t>Devolução de petição</t>
+  </si>
+  <si>
+    <t>Enunciado publicado no DJE e no DOU (Lei 11.417/2006)</t>
+  </si>
+  <si>
+    <t>Informações prestadas pelo STF, Ofício nº</t>
+  </si>
+  <si>
+    <t>Informações recebidas, Ofício nº</t>
+  </si>
+  <si>
+    <t>Juntada ao processo nº</t>
+  </si>
+  <si>
+    <t>Juntada a petição nº</t>
+  </si>
+  <si>
+    <t>Manifestação art. 95, §1º, RISTF</t>
+  </si>
+  <si>
+    <t>Manifestação da AGU</t>
+  </si>
+  <si>
+    <t>Manifestação da Comissão de Jurisprudência</t>
+  </si>
+  <si>
+    <t>Notas taquigráficas publicadas no DJE</t>
+  </si>
+  <si>
+    <t>Recebimento dos autos</t>
+  </si>
+  <si>
+    <t>Registrado à Comissão de Jurisprudência</t>
+  </si>
+  <si>
+    <t>Rejeitado</t>
+  </si>
+  <si>
+    <t>Remessa</t>
+  </si>
+  <si>
+    <t>Renúncia ao prazo</t>
+  </si>
+  <si>
+    <t>Retificação</t>
+  </si>
+  <si>
+    <t>Substabelecimento com reserva</t>
+  </si>
+  <si>
+    <t>Substabelecimento sem reserva</t>
+  </si>
+  <si>
+    <t>Suspensão e reinício de julgamento</t>
+  </si>
+  <si>
+    <t>Suspenso o julgamento</t>
+  </si>
+  <si>
+    <t>Oferecida Denúncia</t>
+  </si>
+  <si>
+    <t>Oferecida a denúncia</t>
+  </si>
+  <si>
+    <t>Parecer</t>
+  </si>
+  <si>
+    <t>Manifestação da PGR</t>
+  </si>
+  <si>
+    <t>Pedido Vista</t>
+  </si>
+  <si>
+    <t>Vista Externa</t>
+  </si>
+  <si>
+    <t>Vista</t>
+  </si>
+  <si>
+    <t>Vista ao advogado</t>
+  </si>
+  <si>
+    <t>Vista ao AGU</t>
+  </si>
+  <si>
+    <t>Vista à PGR</t>
+  </si>
+  <si>
+    <t>Vista à PGR para fins de intimação</t>
+  </si>
+  <si>
+    <t>Vista Julgamento</t>
+  </si>
+  <si>
+    <t>Vista ao(à) Ministro(a)</t>
+  </si>
+  <si>
+    <t>Vista renovada justificadamente, a pedido, por 10 dias</t>
+  </si>
+  <si>
+    <t>Preparo</t>
+  </si>
+  <si>
+    <t>Preparados</t>
+  </si>
+  <si>
+    <t>Protocolo</t>
+  </si>
+  <si>
+    <t>Protocolado</t>
+  </si>
+  <si>
+    <t>Publicação de Acórdão</t>
+  </si>
+  <si>
+    <t>Publicado acórdão, DJE</t>
+  </si>
+  <si>
+    <t>Republicado acórdão, DJE</t>
+  </si>
+  <si>
+    <t>Publicação de Decisão Colegiada</t>
+  </si>
+  <si>
+    <t>Ata de Julgamento Publicada, DJE</t>
+  </si>
+  <si>
+    <t>Decisão de julgamento (Lei 9.868/99) publicada no DJE</t>
+  </si>
+  <si>
+    <t>Decisão de julgamento (Lei 9.868/99) publicada no DJE e no DOU</t>
+  </si>
+  <si>
+    <t>Decisão de julgamento (Lei 9.868/99) publicada no DOU</t>
+  </si>
+  <si>
+    <t>Decisão de julgamento (Lei 9.882/99) publicada no DJE</t>
+  </si>
+  <si>
+    <t>Decisão de julgamento (Lei 9.882/99) publicada no DJE e no DOU</t>
+  </si>
+  <si>
+    <t>Decisão de julgamento (Lei 9.882/99) publicada no DOU</t>
+  </si>
+  <si>
+    <t>Decisão publicada, DJE</t>
+  </si>
+  <si>
+    <t>Publicação de Decisão Monocrática</t>
+  </si>
+  <si>
+    <t>Decisão (Lei 9.868/99) publicada no DJE e no DOU</t>
+  </si>
+  <si>
+    <t>Publicação, DJE</t>
+  </si>
+  <si>
+    <t>Republicado, DJE</t>
+  </si>
+  <si>
+    <t>Publicação de Pauta</t>
+  </si>
+  <si>
+    <t>Calendário de julgamento publicado no DJe</t>
+  </si>
+  <si>
+    <t>Excluído do calendário de julgamento</t>
+  </si>
+  <si>
+    <t>Excluído do calendário de julgamento pelo Presidente</t>
+  </si>
+  <si>
+    <t>Incluído na lista de julgamento</t>
+  </si>
+  <si>
+    <t>Incluído no calendário de julgamento</t>
+  </si>
+  <si>
+    <t>Incluído no calendário de julgamento pelo Presidente</t>
+  </si>
+  <si>
+    <t>Pauta publicada no DJE - 1ª Turma</t>
+  </si>
+  <si>
+    <t>Pauta publicada no DJE - 2ª Turma</t>
+  </si>
+  <si>
+    <t>Pauta publicada no DJE - Plenário</t>
+  </si>
+  <si>
+    <t>Pedido de Destaque</t>
+  </si>
+  <si>
+    <t>Reincluído no calendário de julgamento pelo Presidente</t>
+  </si>
+  <si>
+    <t>Recursal</t>
+  </si>
+  <si>
+    <t>Interposto agravo regimental</t>
+  </si>
+  <si>
+    <t>Opostos embargos à execução</t>
+  </si>
+  <si>
+    <t>Opostos embargos de declaração</t>
+  </si>
+  <si>
+    <t>Opostos embargos de divergência</t>
+  </si>
+  <si>
+    <t>Opostos embargos infringentes</t>
+  </si>
+  <si>
+    <t>Requerida Tutela Provisória Incidental</t>
+  </si>
+  <si>
+    <t>Retirado de Mesa</t>
+  </si>
+  <si>
+    <t>Retirado de mesa</t>
+  </si>
+  <si>
+    <t>Retirado de Pauta</t>
+  </si>
+  <si>
+    <t>Retirado de pauta</t>
+  </si>
+  <si>
+    <t>Retorno a Trâmite</t>
+  </si>
+  <si>
+    <t>Iniciada a execução contra a Fazenda Pública</t>
+  </si>
+  <si>
+    <t>Interposto pedido de extensão</t>
+  </si>
+  <si>
+    <t>Recebimento externo dos autos</t>
+  </si>
+  <si>
+    <t>Retorno ao trâmite</t>
+  </si>
+  <si>
+    <t>Trânsito em Julgado</t>
+  </si>
+  <si>
+    <t>Transitado(a) em julgado</t>
   </si>
 </sst>
 </file>
@@ -399,13 +1495,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,7 +2317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C433BEC-DB16-4632-A5B8-079E7779AADA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1278,4 +2377,4406 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B1DB45-D86C-47DB-805B-B838423A2BF8}">
+  <dimension ref="A1:D313"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="23.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="1">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="1">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="1">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="1">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" s="1">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="1">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="1">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="1">
+        <v>6505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="1">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="1">
+        <v>6251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="1">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="1">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="1">
+        <v>6243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="1">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" s="1">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="1">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" s="1">
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="1">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="1">
+        <v>6335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" s="1">
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" s="1">
+        <v>8517</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" s="1">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="1">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" s="1">
+        <v>6216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" s="1">
+        <v>6217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="1">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" s="1">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="1">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="1">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" s="1">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" s="1">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" s="1">
+        <v>6242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="1">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D103" s="1">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104" s="1">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" s="1">
+        <v>6224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106" s="1">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D107" s="1">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="1">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109" s="1">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D110" s="1">
+        <v>6228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D111" s="1">
+        <v>6229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D112" s="1">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="1">
+        <v>6231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D114" s="1">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" s="1">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116" s="1">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" s="1">
+        <v>6235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D118" s="1">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" s="1">
+        <v>6503</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D120" s="1">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D121" s="1">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D122" s="1">
+        <v>6405</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D123" s="1">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D124" s="1">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D125" s="1">
+        <v>8515</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" s="1">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" s="1">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128" s="1">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D129" s="1">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D130" s="1">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D131" s="1">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D132" s="1">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D133" s="1">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D134" s="1">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D135" s="1">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D136" s="1">
+        <v>8548</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D137" s="1">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D138" s="1">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D139" s="1">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D140" s="1">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D141" s="1">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D142" s="1">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D143" s="1">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D144" s="1">
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D145" s="1">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D146" s="1">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D147" s="1">
+        <v>6301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D148" s="1">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D149" s="1">
+        <v>6307</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D150" s="1">
+        <v>8540</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D151" s="1">
+        <v>6308</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D152" s="1">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D153" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D154" s="1">
+        <v>8233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D155" s="1">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D156" s="1">
+        <v>8205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D157" s="1">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D158" s="1">
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D159" s="1">
+        <v>7403</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D160" s="1">
+        <v>7404</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D161" s="1">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D162" s="1">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D163" s="1">
+        <v>7407</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D164" s="1">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D165" s="1">
+        <v>7409</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D166" s="1">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D167" s="1">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D168" s="1">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D169" s="1">
+        <v>7413</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D170" s="1">
+        <v>8551</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D171" s="1">
+        <v>8552</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D172" s="1">
+        <v>7501</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D173" s="1">
+        <v>7502</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D174" s="1">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D175" s="1">
+        <v>7504</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D176" s="1">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D177" s="1">
+        <v>7506</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D178" s="1">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D179" s="1">
+        <v>8509</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D180" s="1">
+        <v>8209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D181" s="1">
+        <v>7103</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D182" s="1">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D183" s="1">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D184" s="1">
+        <v>7109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D185" s="1">
+        <v>7111</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D186" s="1">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D187" s="1">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D188" s="1">
+        <v>7112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D189" s="1">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D190" s="1">
+        <v>7107</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D191" s="1">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D192" s="1">
+        <v>8241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D193" s="1">
+        <v>8210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D194" s="1">
+        <v>7106</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D195" s="1">
+        <v>8248</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D196" s="1">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D197" s="1">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D198" s="1">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D199" s="1">
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D200" s="1">
+        <v>8013</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D201" s="1">
+        <v>8011</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D202" s="1">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D203" s="1">
+        <v>8513</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D204" s="1">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D205" s="1">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D206" s="1">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D207" s="1">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D208" s="1">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D209" s="1">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D210" s="1">
+        <v>8521</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D211" s="1">
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D212" s="1">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D213" s="1">
+        <v>8221</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D214" s="1">
+        <v>8222</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D215" s="1">
+        <v>8223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D216" s="1">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D217" s="1">
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D218" s="1">
+        <v>8227</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D219" s="1">
+        <v>8229</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D220" s="1">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D221" s="1">
+        <v>8506</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D222" s="1">
+        <v>8231</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D223" s="1">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D224" s="1">
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D225" s="1">
+        <v>8557</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D226" s="1">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D227" s="1">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D228" s="1">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D229" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D230" s="1">
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D231" s="1">
+        <v>8207</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D232" s="1">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D233" s="1">
+        <v>8561</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D234" s="1">
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D235" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D236" s="1">
+        <v>8244</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D237" s="1">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D238" s="1">
+        <v>8212</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D239" s="1">
+        <v>8502</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D240" s="1">
+        <v>8405</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D241" s="1">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D242" s="1">
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D243" s="1">
+        <v>8206</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D244" s="1">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D245" s="1">
+        <v>7914</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D246" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D247" s="1">
+        <v>7318</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D248" s="1">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D249" s="1">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D250" s="1">
+        <v>8246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D251" s="1">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D252" s="1">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D253" s="1">
+        <v>8501</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D254" s="1">
+        <v>8503</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D255" s="1">
+        <v>7803</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D256" s="1">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D257" s="1">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D258" s="1">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D259" s="1">
+        <v>8218</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D260" s="1">
+        <v>8234</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D261" s="1">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D262" s="1">
+        <v>8236</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D263" s="1">
+        <v>8237</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D264" s="1">
+        <v>8559</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D265" s="1">
+        <v>7205</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D266" s="1">
+        <v>8239</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D267" s="1">
+        <v>8235</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D268" s="1">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D269" s="1">
+        <v>8301</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D270" s="1">
+        <v>8302</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D271" s="1">
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D272" s="1">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D273" s="1">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D274" s="1">
+        <v>8306</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D275" s="1">
+        <v>7804</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D276" s="1">
+        <v>7805</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D277" s="1">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D278" s="1">
+        <v>7901</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D279" s="1">
+        <v>7915</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D280" s="1">
+        <v>7902</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D281" s="1">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D282" s="1">
+        <v>7907</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D283" s="1">
+        <v>7903</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D284" s="1">
+        <v>7906</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D285" s="1">
+        <v>7908</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D286" s="1">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D287" s="1">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D288" s="1">
+        <v>7909</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D289" s="1">
+        <v>7910</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D290" s="1">
+        <v>8535</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D291" s="1">
+        <v>8555</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D292" s="1">
+        <v>8536</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D293" s="1">
+        <v>8546</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D294" s="1">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D295" s="1">
+        <v>8534</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D296" s="1">
+        <v>7911</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D297" s="1">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D298" s="1">
+        <v>7913</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D299" s="1">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D300" s="1">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D301" s="1">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D302" s="1">
+        <v>8007</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D303" s="1">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D304" s="1">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D305" s="1">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D306" s="1">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D307" s="1">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D308" s="1">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D309" s="1">
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D310" s="1">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D311" s="1">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A312" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D312" s="1">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A313" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D313" s="1">
+        <v>8219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>